--- a/sunspider1错误定位测试具体情况.xlsx
+++ b/sunspider1错误定位测试具体情况.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>文件名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -61,10 +61,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>单变量普通赋值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Mtrans=null;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -116,6 +112,158 @@
   </si>
   <si>
     <t>未能定位到错误位置，分析程序目前处理不了该种情况，（修改该bug后能处理该情况）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3d-raytrace.js</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>closest = null;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⅹ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通赋值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通赋值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能定位到哪一行，但是具体信息有误，未能查看到具体的问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>access-fannkuch.js</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>perm = null;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>putfield,perm[i] = perm1[i];出现这种情况时错误变量识别不准确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能准确定位的原因是收集trace时错误变量出错</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>access-nsieve.js</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flags = null;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>putfield,收集trace时算法有问题，错误变量识别不准确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集trace时对于putfield的情况考虑不全，有很多错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>crypto-aes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>getfield,和上面的问题一样，根据读写情况不能准确的得到错误变量的值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>state = null;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⅹ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>getfield,和上面的问题一样，根据读写情况不能准确的得到错误变量的值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ⅹ(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>√</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ⅹ(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>√</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集的trace的问题，需修改源代码(修改trace收集的代码后能定位到具体错误)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>修改后，能准确定位到该错误，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>具体原因是Jalangi对a.b与a[b]这两种情况的处理不同导致原来的程序不能处理a[b]这种情况</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -123,7 +271,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +307,20 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -180,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -200,11 +362,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,13 +656,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="3" width="13.125" customWidth="1"/>
     <col min="4" max="4" width="13.875" customWidth="1"/>
     <col min="5" max="5" width="13.25" customWidth="1"/>
@@ -502,16 +670,16 @@
     <col min="7" max="7" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -521,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -537,7 +705,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3">
@@ -550,16 +718,17 @@
         <v>6</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
       <c r="B4" s="5">
         <v>317</v>
       </c>
@@ -567,19 +736,20 @@
         <v>344</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
       <c r="B5" s="5">
         <v>319</v>
       </c>
@@ -587,19 +757,20 @@
         <v>344</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
       <c r="B6" s="5">
         <v>313</v>
       </c>
@@ -607,18 +778,18 @@
         <v>344</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="54" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5">
         <v>46</v>
@@ -627,23 +798,130 @@
         <v>55</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="5" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5">
+        <v>202</v>
+      </c>
+      <c r="C8" s="5">
+        <v>442</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="5" customFormat="1" ht="54" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5">
+        <v>67</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="5" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="5">
+        <v>35</v>
+      </c>
+      <c r="C10" s="5">
+        <v>40</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="5" customFormat="1" ht="54" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="5">
+        <v>18</v>
+      </c>
+      <c r="C11" s="5">
+        <v>426</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="5" customFormat="1" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="B12" s="5">
         <v>21</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:7" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:7" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:7" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:7" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.2"/>
+      <c r="C12" s="5">
+        <v>426</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="13" spans="1:7" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:7" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:7" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.2"/>
@@ -661,10 +939,12 @@
     <row r="27" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.2"/>
     <row r="28" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:A6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sunspider1错误定位测试具体情况.xlsx
+++ b/sunspider1错误定位测试具体情况.xlsx
@@ -123,10 +123,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ⅹ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>普通赋值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -263,6 +259,32 @@
         <charset val="134"/>
       </rPr>
       <t>具体原因是Jalangi对a.b与a[b]这两种情况的处理不同导致原来的程序不能处理a[b]这种情况</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ⅹ(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>√</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -657,7 +679,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -721,7 +743,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>8</v>
@@ -801,7 +823,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>20</v>
@@ -824,18 +846,18 @@
         <v>25</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="54" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="5">
         <v>14</v>
@@ -844,21 +866,21 @@
         <v>67</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="5" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5">
         <v>35</v>
@@ -867,21 +889,21 @@
         <v>40</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="5" customFormat="1" ht="54" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="5">
         <v>18</v>
@@ -890,16 +912,16 @@
         <v>426</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="5" customFormat="1" ht="67.5" x14ac:dyDescent="0.2">
@@ -910,16 +932,16 @@
         <v>426</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.2"/>

--- a/sunspider1错误定位测试具体情况.xlsx
+++ b/sunspider1错误定位测试具体情况.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>文件名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -164,10 +164,6 @@
   </si>
   <si>
     <t>收集trace时对于putfield的情况考虑不全，有很多错误</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>crypto-aes</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -286,6 +282,82 @@
       </rPr>
       <t>)</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>crypto-aes.js</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>date-format-tofte.js</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>array = null;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通赋值，空引用产生错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>math-cordic.js</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>start = null;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>math-spectral-norm.js</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u = null;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数调用进行值传递，两次函数调用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spectralnorm =&gt; AtAu(u,…) =&gt; Au(u, …)=&gt;u[j]出错</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string-base64.js</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⅹ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>var c = toBinaryTable[data.charCodeAt(i) &amp; 0x7f];toBinaryTable是全局变量，分析程序没有考虑到在函数中全局变量的使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单次函数调用，在函数中使用了值为null的全局变量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string-tagcloud.js</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>toBinaryTable = null;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tagInfo = null;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单次函数调用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -364,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -395,6 +467,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,18 +753,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
     <col min="5" max="5" width="13.25" customWidth="1"/>
     <col min="6" max="6" width="18.375" customWidth="1"/>
-    <col min="7" max="7" width="24.125" customWidth="1"/>
+    <col min="7" max="7" width="35.625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -726,7 +801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
@@ -770,7 +845,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="5">
         <v>319</v>
@@ -809,7 +884,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="5" customFormat="1" ht="54" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="5" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
@@ -823,7 +898,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>20</v>
@@ -832,7 +907,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
@@ -846,7 +921,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>27</v>
@@ -869,7 +944,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>31</v>
@@ -892,7 +967,7 @@
         <v>34</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>35</v>
@@ -903,7 +978,7 @@
     </row>
     <row r="11" spans="1:7" s="5" customFormat="1" ht="54" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B11" s="5">
         <v>18</v>
@@ -912,19 +987,19 @@
         <v>426</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="5" customFormat="1" ht="67.5" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="5" customFormat="1" ht="54" x14ac:dyDescent="0.2">
       <c r="B12" s="5">
         <v>21</v>
       </c>
@@ -932,34 +1007,135 @@
         <v>426</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:7" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:7" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:7" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.2"/>
-    <row r="17" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.2"/>
-    <row r="18" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.2"/>
-    <row r="19" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.2"/>
-    <row r="20" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.2"/>
-    <row r="21" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.2"/>
-    <row r="22" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.2"/>
-    <row r="23" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.2"/>
-    <row r="24" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.2"/>
-    <row r="25" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.2"/>
-    <row r="26" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.2"/>
-    <row r="27" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.2"/>
-    <row r="28" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2</v>
+      </c>
+      <c r="C13" s="5">
+        <v>300</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="5">
+        <v>90</v>
+      </c>
+      <c r="C14" s="5">
+        <v>102</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="5">
+        <v>38</v>
+      </c>
+      <c r="C15" s="5">
+        <v>52</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="5" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="5">
+        <v>86</v>
+      </c>
+      <c r="C16" s="5">
+        <v>136</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="5">
+        <v>230</v>
+      </c>
+      <c r="C17" s="5">
+        <v>266</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:6" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:6" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:6" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:6" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:6" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:6" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:6" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:6" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:6" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
